--- a/data/processed_data/statistic_data/竞品.xlsx
+++ b/data/processed_data/statistic_data/竞品.xlsx
@@ -20,12 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>企业编号</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>竞品的行业</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>freq</t>
   </si>
   <si>
     <t>生产制造</t>
@@ -416,54 +449,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>31646</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>2524.581590090375</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>864.3708772608022</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1802</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>2488</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3289</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>3999</v>
       </c>
     </row>
@@ -474,34 +531,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+      <c r="B2">
         <v>1926</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>286</v>
       </c>
     </row>
@@ -512,34 +581,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>31644</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>14613</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>327</v>
       </c>
     </row>
@@ -550,34 +631,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>22965</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>6461</v>
       </c>
     </row>
@@ -588,34 +681,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>29310</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>3807</v>
       </c>
     </row>
@@ -626,34 +731,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>29316</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>29110</v>
       </c>
     </row>
@@ -664,34 +781,46 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>30825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>6052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+      <c r="B5">
         <v>59</v>
       </c>
     </row>
